--- a/data/trans_bre/P25_9-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,30 +620,40 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>293,85%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 16,49</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 25,68</t>
+          <t>0,0; 13,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 17,63</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,30 +720,40 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>712,6%</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>621,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -722,30 +768,40 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 17,55</t>
+          <t>2,1; 22,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 17,92</t>
+          <t>5,36; 23,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 15,42</t>
+          <t>5,32; 22,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>5,59; 28,19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>533,2%</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>132,3%</t>
+          <t>333,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>946,32%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>326,33%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 17,9</t>
+          <t>3,36; 19,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 13,07</t>
+          <t>7,03; 19,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 14,77</t>
+          <t>5,34; 16,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,83; —</t>
+          <t>3,62; 20,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,47; —</t>
+          <t>4,92; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-24,97; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>23,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,79</t>
+          <t>15,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,74</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>227,86%</t>
+          <t>8,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>220,92%</t>
+          <t>453,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>303,86%</t>
+          <t>218,88%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>423,53%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>73,52%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 22,52</t>
+          <t>12,61; 33,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 24,13</t>
+          <t>6,06; 25,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 23,3</t>
+          <t>7,74; 24,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,99; 576,22</t>
+          <t>-2,09; 19,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,73; 634,14</t>
+          <t>116,72; 1860,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,52; 917,12</t>
+          <t>43,24; 810,75</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>79,47; 2103,73</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 299,66</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>16,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,03</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>273,23%</t>
+          <t>19,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>234,91%</t>
+          <t>346,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>206,89%</t>
+          <t>198,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>308,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>151,64%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 25,51</t>
+          <t>6,85; 32,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 22,9</t>
+          <t>4,22; 31,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,92; 23,08</t>
+          <t>6,6; 32,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,45; 841,33</t>
+          <t>3,9; 37,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,97; 673,81</t>
+          <t>49,93; 1766,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,92; 632,68</t>
+          <t>15,72; 771,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 1434,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,21; 511,25</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,93</t>
+          <t>14,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>25,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,41</t>
+          <t>24,5</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>130,34%</t>
+          <t>24,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>159,9%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>171,12%</t>
+          <t>542,71%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>191,22%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80,74%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,18; 35,33</t>
+          <t>-3,21; 32,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 29,36</t>
+          <t>11,59; 42,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 31,98</t>
+          <t>6,55; 41,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,3; 355,13</t>
+          <t>1,91; 45,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,67; 471,72</t>
+          <t>-18,14; 444,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 528,43</t>
+          <t>49,13; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 724,83</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 247,16</t>
         </is>
       </c>
     </row>
@@ -1084,12 +1220,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>13,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1099,17 +1235,27 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>272,34%</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>243,11%</t>
+          <t>284,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>377,52%</t>
+          <t>393,75%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>413,38%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>169,44%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,51</t>
+          <t>9,27; 18,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,97; 15,71</t>
+          <t>9,92; 17,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,55</t>
+          <t>9,23; 17,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>156,45; 464,4</t>
+          <t>9,13; 21,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>99,4; 423,31</t>
+          <t>137,29; 566,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>204,97; 660,54</t>
+          <t>185,23; 817,81</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>190,24; 904,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>75,21; 324,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_9-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,32 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>6.708305567364492</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.468264234124156</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.183266042893401</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +660,140 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,63</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.28067207474485</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.58712710222785</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>20.54665520498346</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,43</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,8</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>621,42%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 22,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 23,41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 22,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 28,19</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>13.64532186576032</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.76815388919534</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.5322588735208</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.96137091491978</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>9.451210656070327</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>333,07%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>326,33%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4.409977353647844</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.090277299896789</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.700754656842973</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.648327090392178</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 19,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 19,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 16,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 20,38</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,92; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-24,97; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>27.44343946861991</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.35730448782989</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.70357958020945</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>28.65414447823126</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +801,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>23,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>15,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,71</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>453,8%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>218,88%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>423,53%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>73,52%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>10.88389958874671</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.2848258663884</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.423576130186907</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.46703918841171</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>3.459717223074053</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>3.143518806738399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>12,61; 33,11</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 25,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 24,64</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 19,34</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>116,72; 1860,42</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>43,24; 810,75</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>79,47; 2103,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-14,86; 299,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.597134989068794</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.968149818423895</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5.122100797509517</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>3.034159876772152</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.03160013310120184</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.2628811442986249</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.72850712479727</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.27990949605917</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.14723592990209</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.50558703585749</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>19,33</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>16,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>19,84</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>346,41%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>198,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>308,49%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>151,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 32,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 31,5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 32,61</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 37,42</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>49,93; 1766,23</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>15,72; 771,31</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>23,96; 1434,58</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>14,21; 511,25</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>22.75716655138464</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>15.73759786979376</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>15.11194455574167</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.970794725536683</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>4.70554755792875</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.326049516035894</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>4.115694247263092</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7764861246746617</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14,75</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,99</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>24,5</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>24,54</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>95,84%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>542,71%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>191,22%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>80,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>12.51058636262497</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.170007489468327</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>7.273008752216954</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.575637306204504</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.200971895743289</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.43793923513501</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.7347196255906233</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1414955580477723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 32,87</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,59; 42,14</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 41,76</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 45,59</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-18,14; 444,47</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,13; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,99; 724,83</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 247,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>32.90902330628622</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>24.70380448275196</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>24.09023442242778</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.51041354098958</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>18.96520949621914</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.146792551715116</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>21.11930684516376</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.258716072290381</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +993,295 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>13,89</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>13,66</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>14,97</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>284,79%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>393,75%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>413,38%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>169,44%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>17.90189900748133</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>16.76789671955366</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>17.31560994268006</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>18.65245380021559</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>2.759927659182365</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>2.212384695361973</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>3.109681173917843</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.510040117782324</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>9,27; 18,47</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9,92; 17,93</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 17,06</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 21,33</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>137,29; 566,81</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>185,23; 817,81</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>190,24; 904,19</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>75,21; 324,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>4.849165937078693</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>4.701107311391985</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>6.180554845260628</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>4.329582980812076</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.1863792794151303</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.2221687809948251</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.1696273306333545</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.132779157942856</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>31.67749680874968</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>31.9231589355811</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>32.34255407367142</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>35.50516597050251</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>13.33363024849458</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>8.578446333033694</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>14.56806229791033</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>5.196383650809631</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>15.08251563603164</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>27.10594993104491</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>25.5734874657734</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>25.21551758251941</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.014562609488368</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>5.733258169900822</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>2.015163651656368</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.8632491732890747</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-2.043950014380937</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>12.1823838961579</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>7.826982518640276</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2.078852187106912</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1618243170429522</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.5374933814979157</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.1873615350195044</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0.02223581896405143</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>33.71104541976923</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>44.92750805017457</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>44.50345512102466</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>47.46933995218737</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>4.599860961795802</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="n">
+        <v>7.832225588532826</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>2.609585886333258</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>14.42517478327708</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>13.92898667299133</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>12.77516528953517</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>15.04318415328707</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>3.01330569133673</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>4.261173219014878</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>4.311025062726414</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>1.8139724033666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>9.784688807168877</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>10.24854661052248</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>9.170265016838679</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>9.239219753315323</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>1.436672245801548</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>2.117762879081609</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>1.919904039905352</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.8380025631751895</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>19.30360898719901</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>18.25444171388134</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>17.22777228322268</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>21.05613218745992</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>5.981926050125628</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>8.866215248642295</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>9.047956873792808</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>3.47369847765154</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1289,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
